--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_03_beg.xlsx
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Big Bob"]   "...Monster?"
+    <t xml:space="preserve">[name="Big Bob"]   '...Monster?'
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]   Now! Fiiire!
+    <t xml:space="preserve">[name="'Captain'"]   Now! Fiiire!
 </t>
   </si>
   <si>
@@ -912,7 +912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]   That's her right there, the walking Catastrophe! Hurry, shoot her down!
+    <t xml:space="preserve">[name="'Captain'"]   That's her right there, the walking Catastrophe! Hurry, shoot her down!
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]   What do you think you're doing, kid?
+    <t xml:space="preserve">[name="'Captain'"]   What do you think you're doing, kid?
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]   G-get out of my way, you rascal—!
+    <t xml:space="preserve">[name="'Captain'"]   G-get out of my way, you rascal—!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_03_beg.xlsx
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Big Bob"]   —There’s an opening to the east! Hurry!
+    <t xml:space="preserve">[name="Big Bob"]   —There's an opening to the east! Hurry!
 </t>
   </si>
   <si>
